--- a/runs/v27/SwabSeq.xlsx
+++ b/runs/v27/SwabSeq.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="983" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="_constants" sheetId="1" state="visible" r:id="rId2"/>
@@ -5074,7 +5074,7 @@
   </sheetPr>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -10695,8 +10695,8 @@
   </sheetPr>
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H45" activeCellId="0" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
